--- a/src/main/resources/documents/WRN11NMBProjectsTemplate.xlsx
+++ b/src/main/resources/documents/WRN11NMBProjectsTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PUB_Automation\PUBProjectAutomation\src\main\resources\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F758DE0B-C8A6-4281-8970-7CDBEE59D160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC1FFBF-F8D1-40D9-9662-09F20A7057B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="123">
   <si>
     <t>(Do Not Modify) Account</t>
   </si>
@@ -202,301 +202,199 @@
     <t>Pumping Systems</t>
   </si>
   <si>
-    <t>A2024/01/16/PP-1864</t>
-  </si>
-  <si>
-    <t>A2024/01/16/PP-3543</t>
+    <t>A2024/09/13/PP-33673</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-76019</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>A2024/09/10/PP-69410</t>
-  </si>
-  <si>
-    <t>A2024/09/10/PP-18349</t>
-  </si>
-  <si>
-    <t>A2024/09/10/PP-42796</t>
-  </si>
-  <si>
-    <t>A2024/09/10/PP-32468</t>
-  </si>
-  <si>
-    <t>A2024/09/10/PP-59929</t>
-  </si>
-  <si>
-    <t>A2024/09/10/PP-79935</t>
-  </si>
-  <si>
-    <t>A2024/09/10/PP-70987</t>
-  </si>
-  <si>
-    <t>A2024/09/10/PP-53136</t>
-  </si>
-  <si>
-    <t>A2024/09/10/PP-28430</t>
-  </si>
-  <si>
-    <t>A2024/09/10/PP-17366</t>
-  </si>
-  <si>
-    <t>A2024/09/10/PP-58584</t>
-  </si>
-  <si>
-    <t>A2024/09/10/PP-81532</t>
-  </si>
-  <si>
-    <t>A2024/09/10/PP-68674</t>
-  </si>
-  <si>
-    <t>A2024/09/10/PP-32882</t>
-  </si>
-  <si>
-    <t>A2024/09/10/PP-75036</t>
-  </si>
-  <si>
-    <t>A2024/09/10/PP-45436</t>
-  </si>
-  <si>
-    <t>A2024/09/10/PP-82008</t>
-  </si>
-  <si>
-    <t>A2024/09/10/PP-11358</t>
-  </si>
-  <si>
-    <t>A2024/09/10/PP-45354</t>
-  </si>
-  <si>
-    <t>A2024/09/10/PP-60933</t>
-  </si>
-  <si>
-    <t>A2024/09/10/PP-50268</t>
-  </si>
-  <si>
-    <t>A2024/09/10/PP-11267</t>
-  </si>
-  <si>
-    <t>A2024/09/10/PP-93469</t>
-  </si>
-  <si>
-    <t>A2024/09/10/PP-90069</t>
-  </si>
-  <si>
-    <t>A2024/09/10/PP-23425</t>
-  </si>
-  <si>
-    <t>A2024/09/10/PP-72546</t>
-  </si>
-  <si>
-    <t>A2024/09/10/PP-36125</t>
-  </si>
-  <si>
-    <t>A2024/09/10/PP-58244</t>
-  </si>
-  <si>
-    <t>A2024/09/10/PP-53683</t>
-  </si>
-  <si>
-    <t>A2024/09/10/PP-19700</t>
-  </si>
-  <si>
-    <t>A2024/09/10/PP-46827</t>
-  </si>
-  <si>
-    <t>A2024/09/10/PP-90991</t>
-  </si>
-  <si>
-    <t>A2024/09/10/PP-60344</t>
-  </si>
-  <si>
-    <t>A2024/09/10/PP-25204</t>
-  </si>
-  <si>
-    <t>A2024/09/10/PP-13412</t>
-  </si>
-  <si>
-    <t>A2024/09/10/PP-80026</t>
-  </si>
-  <si>
-    <t>A2024/09/10/PP-22012</t>
-  </si>
-  <si>
-    <t>A2024/09/10/PP-89739</t>
-  </si>
-  <si>
-    <t>A2024/09/11/PP-92874</t>
-  </si>
-  <si>
-    <t>A2024/09/11/PP-14055</t>
-  </si>
-  <si>
-    <t>A2024/09/11/PP-33455</t>
-  </si>
-  <si>
-    <t>A2024/09/11/PP-53615</t>
-  </si>
-  <si>
-    <t>A2024/09/11/PP-55959</t>
-  </si>
-  <si>
-    <t>A2024/09/11/PP-36113</t>
-  </si>
-  <si>
-    <t>A2024/09/11/PP-24791</t>
-  </si>
-  <si>
-    <t>A2024/09/11/PP-99929</t>
-  </si>
-  <si>
-    <t>A2024/09/11/PP-28078</t>
-  </si>
-  <si>
-    <t>A2024/09/11/PP-31442</t>
-  </si>
-  <si>
-    <t>A2024/09/11/PP-36132</t>
-  </si>
-  <si>
-    <t>A2024/09/11/PP-64320</t>
-  </si>
-  <si>
-    <t>A2024/09/11/PP-32242</t>
-  </si>
-  <si>
-    <t>A2024/09/11/PP-18082</t>
-  </si>
-  <si>
-    <t>A2024/09/11/PP-24255</t>
-  </si>
-  <si>
-    <t>A2024/09/11/PP-24324</t>
-  </si>
-  <si>
-    <t>A2024/09/11/PP-23228</t>
-  </si>
-  <si>
-    <t>A2024/09/11/PP-69889</t>
-  </si>
-  <si>
-    <t>A2024/09/11/PP-79779</t>
-  </si>
-  <si>
-    <t>A2024/09/11/PP-49884</t>
-  </si>
-  <si>
-    <t>A2024/09/11/PP-97247</t>
-  </si>
-  <si>
-    <t>A2024/09/11/PP-41184</t>
-  </si>
-  <si>
-    <t>A2024/09/11/PP-87382</t>
-  </si>
-  <si>
-    <t>A2024/09/11/PP-87399</t>
-  </si>
-  <si>
-    <t>A2024/09/11/PP-18234</t>
-  </si>
-  <si>
-    <t>A2024/09/11/PP-98608</t>
-  </si>
-  <si>
-    <t>A2024/09/11/PP-95467</t>
-  </si>
-  <si>
-    <t>A2024/09/11/PP-14451</t>
-  </si>
-  <si>
-    <t>A2024/09/11/PP-65978</t>
-  </si>
-  <si>
-    <t>A2024/09/11/PP-45013</t>
-  </si>
-  <si>
-    <t>A2024/09/11/PP-21976</t>
-  </si>
-  <si>
-    <t>A2024/09/11/PP-91350</t>
-  </si>
-  <si>
-    <t>A2024/09/11/PP-64561</t>
-  </si>
-  <si>
-    <t>A2024/09/11/PP-11611</t>
-  </si>
-  <si>
-    <t>A2024/09/11/PP-47694</t>
-  </si>
-  <si>
-    <t>A2024/09/11/PP-92136</t>
-  </si>
-  <si>
-    <t>A2024/09/11/PP-14887</t>
-  </si>
-  <si>
-    <t>A2024/09/11/PP-43401</t>
-  </si>
-  <si>
-    <t>A2024/09/11/PP-37452</t>
-  </si>
-  <si>
-    <t>A2024/09/11/PP-59903</t>
-  </si>
-  <si>
-    <t>A2024/09/11/PP-52594</t>
-  </si>
-  <si>
-    <t>A2024/09/11/PP-85415</t>
-  </si>
-  <si>
-    <t>A2024/09/12/PP-47777</t>
-  </si>
-  <si>
-    <t>A2024/09/12/PP-49724</t>
-  </si>
-  <si>
-    <t>A2024/09/12/PP-20449</t>
-  </si>
-  <si>
-    <t>A2024/09/12/PP-55203</t>
-  </si>
-  <si>
-    <t>A2024/09/12/PP-52659</t>
-  </si>
-  <si>
-    <t>A2024/09/12/PP-24143</t>
-  </si>
-  <si>
-    <t>A2024/09/12/PP-41190</t>
-  </si>
-  <si>
-    <t>A2024/09/12/PP-90518</t>
-  </si>
-  <si>
-    <t>A2024/09/12/PP-87818</t>
-  </si>
-  <si>
-    <t>A2024/09/12/PP-77079</t>
-  </si>
-  <si>
-    <t>A2024/09/12/PP-93174</t>
-  </si>
-  <si>
-    <t>A2024/09/12/PP-22835</t>
-  </si>
-  <si>
-    <t>A2024/09/12/PP-60640</t>
-  </si>
-  <si>
-    <t>A2024/09/12/PP-68481</t>
-  </si>
-  <si>
-    <t>A2024/09/12/PP-13027</t>
-  </si>
-  <si>
-    <t>A2024/09/12/PP-37065</t>
+    <t>A2024/09/13/PP-71345</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-75255</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-97639</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-65326</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-41709</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-64038</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-86410</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-44181</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-45992</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-13363</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-21205</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-48468</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-50821</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-69977</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-29707</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-46666</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-16495</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-96687</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-28571</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-84864</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-29746</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-45754</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-68925</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-61325</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-72035</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-10773</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-38093</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-23681</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-22856</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-70601</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-87620</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-98344</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-89263</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-14480</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-50107</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-41492</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-26192</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-28630</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-41762</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-47112</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-23419</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-94858</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-10547</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-62370</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-22602</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-72416</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-18562</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-94559</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-43691</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-76590</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-13144</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-20776</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-86891</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-60986</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-80538</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-27294</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-96122</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-45502</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-82064</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-79892</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-59615</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-37994</t>
   </si>
 </sst>
 </file>
@@ -570,8 +468,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L3" totalsRowShown="0">
-  <autoFilter ref="A1:L3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L2" totalsRowShown="0">
+  <autoFilter ref="A1:L2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="(Do Not Modify) Account"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="(Do Not Modify) Row Checksum"/>
@@ -888,10 +786,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="dataSheet"/>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="D3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -944,32 +842,29 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E2" s="1" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Length Exceeded" error="This value must be less than or equal to 2000 characters long." promptTitle="Text" prompt="Maximum Length: 2000 characters." sqref="E4:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Length Exceeded" error="This value must be less than or equal to 2000 characters long." promptTitle="Text" prompt="Maximum Length: 2000 characters." sqref="E3:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>2000</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error=" " promptTitle="Lookup" prompt="This 1BPU Officers record must already exist in Microsoft Dynamics 365 or in this source file." sqref="L2 H2:H1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error=" " promptTitle="Lookup" prompt="This TC Officers record must already exist in Microsoft Dynamics 365 or in this source file." sqref="L3:L1048576" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Length Exceeded" error="This value must be less than or equal to 160 characters long." promptTitle="Text (required)" prompt="Maximum Length: 160 characters." sqref="F2:F1048576 E2:E3" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Length Exceeded" error="This value must be less than or equal to 160 characters long." promptTitle="Text (required)" prompt="Maximum Length: 160 characters." sqref="E2 F2:F1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>160</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error=" " promptTitle="Lookup" prompt="This TC Officers record must already exist in Microsoft Dynamics 365 or in this source file." sqref="L3:L1048576" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Date" error="(Do Not Modify) Modified On must be in the correct date and time format." promptTitle="Date and time" prompt=" " sqref="C2:C1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>1</formula1>
     </dataValidation>

--- a/src/main/resources/documents/WRN11NMBProjectsTemplate.xlsx
+++ b/src/main/resources/documents/WRN11NMBProjectsTemplate.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="137">
   <si>
     <t>(Do Not Modify) Account</t>
   </si>
@@ -395,6 +395,48 @@
   </si>
   <si>
     <t>A2024/09/16/PP-37994</t>
+  </si>
+  <si>
+    <t>A2024/09/30/PP-44996</t>
+  </si>
+  <si>
+    <t>A2024/09/30/PP-73370</t>
+  </si>
+  <si>
+    <t>A2024/09/30/PP-79259</t>
+  </si>
+  <si>
+    <t>A2024/09/30/PP-55201</t>
+  </si>
+  <si>
+    <t>A2024/09/30/PP-54173</t>
+  </si>
+  <si>
+    <t>A2024/09/30/PP-96592</t>
+  </si>
+  <si>
+    <t>A2024/09/30/PP-95385</t>
+  </si>
+  <si>
+    <t>A2024/09/30/PP-40506</t>
+  </si>
+  <si>
+    <t>A2024/09/30/PP-13941</t>
+  </si>
+  <si>
+    <t>A2024/09/30/PP-92988</t>
+  </si>
+  <si>
+    <t>A2024/09/30/PP-11183</t>
+  </si>
+  <si>
+    <t>A2024/09/30/PP-17016</t>
+  </si>
+  <si>
+    <t>A2024/09/30/PP-14130</t>
+  </si>
+  <si>
+    <t>A2024/09/30/PP-22956</t>
   </si>
 </sst>
 </file>
@@ -842,10 +884,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E2" s="1" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>12</v>

--- a/src/main/resources/documents/WRN11NMBProjectsTemplate.xlsx
+++ b/src/main/resources/documents/WRN11NMBProjectsTemplate.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="143">
   <si>
     <t>(Do Not Modify) Account</t>
   </si>
@@ -437,6 +437,24 @@
   </si>
   <si>
     <t>A2024/09/30/PP-22956</t>
+  </si>
+  <si>
+    <t>A2024/10/03/PP-81734</t>
+  </si>
+  <si>
+    <t>A2024/10/03/PP-24936</t>
+  </si>
+  <si>
+    <t>A2024/10/03/PP-35161</t>
+  </si>
+  <si>
+    <t>A2024/10/03/PP-40724</t>
+  </si>
+  <si>
+    <t>A2024/10/07/PP-40398</t>
+  </si>
+  <si>
+    <t>A2024/10/07/PP-39733</t>
   </si>
 </sst>
 </file>
@@ -884,10 +902,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E2" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>12</v>

--- a/src/main/resources/documents/WRN11NMBProjectsTemplate.xlsx
+++ b/src/main/resources/documents/WRN11NMBProjectsTemplate.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="151">
   <si>
     <t>(Do Not Modify) Account</t>
   </si>
@@ -455,6 +455,30 @@
   </si>
   <si>
     <t>A2024/10/07/PP-39733</t>
+  </si>
+  <si>
+    <t>A2024/11/07/PP-26015</t>
+  </si>
+  <si>
+    <t>A2024/11/07/PP-18633</t>
+  </si>
+  <si>
+    <t>A2024/12/03/PP-81308</t>
+  </si>
+  <si>
+    <t>A2024/12/03/PP-86703</t>
+  </si>
+  <si>
+    <t>A2024/12/23/PP-74760</t>
+  </si>
+  <si>
+    <t>A2024/12/23/PP-81461</t>
+  </si>
+  <si>
+    <t>A2024/12/23/PP-94188</t>
+  </si>
+  <si>
+    <t>A2024/12/23/PP-55596</t>
   </si>
 </sst>
 </file>
@@ -902,10 +926,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E2" s="1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>12</v>
